--- a/outputs-r202/test-g__F082.xlsx
+++ b/outputs-r202/test-g__F082.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Row</t>
   </si>
@@ -181,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,14 +191,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,1469 +255,1469 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="C2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="D2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="E2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="F2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="G2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="H2">
-        <v>0.99895527971293352</v>
+        <v>0.99399804902933531</v>
       </c>
       <c r="I2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="J2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="K2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="L2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="M2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="N2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="O2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="P2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="R2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="S2">
-        <v>1.6324659194056175e-12</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="T2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="U2">
-        <v>2.0123139922263282e-08</v>
+        <v>9.8359701533882144e-12</v>
       </c>
       <c r="V2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="W2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="X2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AE2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AI2">
-        <v>2.2203799766375861e-14</v>
+        <v>2.2201878672545472e-14</v>
       </c>
       <c r="AJ2">
-        <v>0.0010447001616057864</v>
+        <v>0.006001950960118253</v>
       </c>
       <c r="AK2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="C3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="D3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="E3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="F3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="G3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="H3">
-        <v>0.99836372126847328</v>
+        <v>0.98946495509069265</v>
       </c>
       <c r="I3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="J3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="K3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="L3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="M3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="N3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="O3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="P3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="Q3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="R3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="S3">
-        <v>4.9040596654734801e-11</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="T3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="U3">
-        <v>5.1214046791751916e-12</v>
+        <v>5.4346458425011482e-12</v>
       </c>
       <c r="V3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="W3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="X3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="Y3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="Z3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AA3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AB3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AC3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AD3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AE3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AF3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AG3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AH3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AI3">
-        <v>2.220342746390751e-14</v>
+        <v>2.2201902652014813e-14</v>
       </c>
       <c r="AJ3">
-        <v>0.0016362786766763197</v>
+        <v>0.010535044903162212</v>
       </c>
       <c r="AK3">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.3506025308608754e-09</v>
+        <v>4.1440318491289666e-08</v>
       </c>
       <c r="C4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="D4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="E4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="F4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="G4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="H4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="I4">
-        <v>0.99467664633886943</v>
+        <v>0.97553786341432192</v>
       </c>
       <c r="J4">
-        <v>0.0011954417986725526</v>
+        <v>0.002709085096302626</v>
       </c>
       <c r="K4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="L4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="M4">
-        <v>6.2596538606117771e-11</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="N4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="O4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="P4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="R4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="S4">
-        <v>2.3893247719571364e-05</v>
+        <v>1.0736961189543179e-07</v>
       </c>
       <c r="T4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="U4">
-        <v>0.00015041826206302987</v>
+        <v>2.3353948982964421e-06</v>
       </c>
       <c r="V4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="W4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="X4">
-        <v>2.1942497716805329e-08</v>
+        <v>1.6103407773172252e-09</v>
       </c>
       <c r="Y4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="Z4">
-        <v>5.31421986139091e-11</v>
+        <v>2.9553706214838419e-12</v>
       </c>
       <c r="AA4">
-        <v>2.3002616504599905e-05</v>
+        <v>3.2029261212609341e-06</v>
       </c>
       <c r="AB4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="AC4">
-        <v>0.0037079475279785251</v>
+        <v>0.00066630412148910583</v>
       </c>
       <c r="AD4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="AE4">
-        <v>0.00021200158945810997</v>
+        <v>0.021073316600845833</v>
       </c>
       <c r="AF4">
-        <v>7.5063703670822783e-13</v>
+        <v>1.8274087218567227e-13</v>
       </c>
       <c r="AG4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2202107675794903e-14</v>
+        <v>2.2202468005577215e-14</v>
       </c>
       <c r="AI4">
-        <v>5.2607093329735422e-06</v>
+        <v>7.7384050119073374e-06</v>
       </c>
       <c r="AJ4">
-        <v>5.3634993452162552e-06</v>
+        <v>3.6171112996758694e-09</v>
       </c>
       <c r="AK4">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.4550526342875049e-06</v>
+        <v>1.7061722147856174e-05</v>
       </c>
       <c r="C5">
-        <v>3.0107787302361e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="D5">
-        <v>3.0107787302360859e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="E5">
-        <v>3.0107787302360844e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="F5">
-        <v>3.0107787302360844e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="G5">
-        <v>3.0107787302361086e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="H5">
-        <v>3.0107787302361086e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="I5">
-        <v>3.0107787302361071e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="J5">
-        <v>0.97066937067808412</v>
+        <v>0.98623772572080881</v>
       </c>
       <c r="K5">
-        <v>3.0107787302360985e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="L5">
-        <v>3.0107787302360985e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="M5">
-        <v>1.5263467344118082e-05</v>
+        <v>1.9916945951240875e-13</v>
       </c>
       <c r="N5">
-        <v>3.0107787302360985e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="O5">
-        <v>3.0107787302361091e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="P5">
-        <v>3.0107787302361091e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="Q5">
-        <v>3.0107787302361091e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="R5">
-        <v>3.0107787302361046e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="S5">
-        <v>0.0038629104751961084</v>
+        <v>3.1027702109409009e-09</v>
       </c>
       <c r="T5">
-        <v>3.0107787302360894e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="U5">
-        <v>1.748225155534409e-05</v>
+        <v>9.4802685235968643e-06</v>
       </c>
       <c r="V5">
-        <v>3.0107787302360935e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="W5">
-        <v>3.0107787302360935e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="X5">
-        <v>1.1845647689094123e-05</v>
+        <v>2.2482454555626811e-08</v>
       </c>
       <c r="Y5">
-        <v>3.0107787302360935e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="Z5">
-        <v>5.0821643285587711e-06</v>
+        <v>5.8966458604588431e-11</v>
       </c>
       <c r="AA5">
-        <v>1.2853336118717224e-11</v>
+        <v>8.5525143891490095e-06</v>
       </c>
       <c r="AB5">
-        <v>3.0107787302360935e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="AC5">
-        <v>0.019368538213667665</v>
+        <v>0.00080269247357901111</v>
       </c>
       <c r="AD5">
-        <v>3.0107787302360935e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="AE5">
-        <v>0.0047369536326801326</v>
+        <v>0.012924396594401168</v>
       </c>
       <c r="AF5">
-        <v>0.00014085544177667802</v>
+        <v>5.6289093710958663e-09</v>
       </c>
       <c r="AG5">
-        <v>3.0107787302360904e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="AH5">
-        <v>3.0107787302360904e-13</v>
+        <v>2.220215624725402e-14</v>
       </c>
       <c r="AI5">
-        <v>2.4610756696722594e-11</v>
+        <v>3.7348049380616429e-08</v>
       </c>
       <c r="AJ5">
-        <v>0.0011642429309558142</v>
+        <v>2.2084312789009114e-08</v>
       </c>
       <c r="AK5">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0435757233530634e-06</v>
+        <v>6.2098335561587239e-05</v>
       </c>
       <c r="C6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="D6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="E6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="F6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="G6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="H6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="I6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="J6">
-        <v>2.0039166201075125e-05</v>
+        <v>1.820527432282805e-06</v>
       </c>
       <c r="K6">
-        <v>0.9938166266366828</v>
+        <v>0.98844846909091799</v>
       </c>
       <c r="L6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="M6">
-        <v>1.2826342383811257e-07</v>
+        <v>7.0612948945936643e-11</v>
       </c>
       <c r="N6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="O6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="P6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="Q6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="R6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="S6">
-        <v>1.2889028926181736e-07</v>
+        <v>2.2454570478757633e-08</v>
       </c>
       <c r="T6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="U6">
-        <v>0.0052435834536730085</v>
+        <v>0.0028879851043302307</v>
       </c>
       <c r="V6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="W6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="X6">
-        <v>1.5706728519518598e-05</v>
+        <v>0.00011249280809321301</v>
       </c>
       <c r="Y6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="Z6">
-        <v>7.6061803209755438e-10</v>
+        <v>1.8473199677083878e-12</v>
       </c>
       <c r="AA6">
-        <v>0.00024352778998872155</v>
+        <v>0.0013534913083200026</v>
       </c>
       <c r="AB6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="AC6">
-        <v>0.00065749513455249633</v>
+        <v>0.0023798459420665374</v>
       </c>
       <c r="AD6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="AE6">
-        <v>1.4630776279328955e-06</v>
+        <v>0.0047496510241451326</v>
       </c>
       <c r="AF6">
-        <v>1.7244511431171852e-07</v>
+        <v>4.1233202328849001e-06</v>
       </c>
       <c r="AG6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="AH6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="AI6">
-        <v>2.2202091348200356e-14</v>
+        <v>2.2203416777918467e-14</v>
       </c>
       <c r="AJ6">
-        <v>8.4077097254150516e-08</v>
+        <v>1.1381123089326612e-11</v>
       </c>
       <c r="AK6">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.2281388417581302e-08</v>
+        <v>1.5673473329678069e-05</v>
       </c>
       <c r="C7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="D7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="E7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="F7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="G7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="H7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="I7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="J7">
-        <v>7.4183775442300506e-06</v>
+        <v>1.7845978721510208e-05</v>
       </c>
       <c r="K7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="L7">
-        <v>0.99358161891803709</v>
+        <v>0.95415808255206636</v>
       </c>
       <c r="M7">
-        <v>5.1446004862899271e-10</v>
+        <v>3.1375856184214923e-11</v>
       </c>
       <c r="N7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="O7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="P7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="R7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="S7">
-        <v>6.1842886331971467e-07</v>
+        <v>1.3531206593198484e-08</v>
       </c>
       <c r="T7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="U7">
-        <v>0.00073832867887729651</v>
+        <v>0.00071981075470445972</v>
       </c>
       <c r="V7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="W7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="X7">
-        <v>0.00062892394267534011</v>
+        <v>7.2613807127509282e-05</v>
       </c>
       <c r="Y7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="Z7">
-        <v>1.8711472301888981e-12</v>
+        <v>3.2335157960734561e-13</v>
       </c>
       <c r="AA7">
-        <v>0.004388818859654536</v>
+        <v>0.025377472142417652</v>
       </c>
       <c r="AB7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="AC7">
-        <v>0.00014491650771611807</v>
+        <v>0.00086540158499873415</v>
       </c>
       <c r="AD7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="AE7">
-        <v>0.0001919382481781858</v>
+        <v>0.018709498668715744</v>
       </c>
       <c r="AF7">
-        <v>0.00031734345051749493</v>
+        <v>6.3587430308655082e-05</v>
       </c>
       <c r="AG7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="AI7">
-        <v>2.2202348768342977e-14</v>
+        <v>2.2205823919670605e-14</v>
       </c>
       <c r="AJ7">
-        <v>1.7897285293397131e-09</v>
+        <v>4.4215377117969323e-11</v>
       </c>
       <c r="AK7">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0210597876013755e-10</v>
+        <v>2.7348528975373875e-11</v>
       </c>
       <c r="C8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="D8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="E8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="F8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="G8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="H8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="I8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="J8">
-        <v>2.2203012039009112e-14</v>
+        <v>4.9988662741827922e-06</v>
       </c>
       <c r="K8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="L8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="M8">
-        <v>0.90186508230894502</v>
+        <v>0.80535704953860476</v>
       </c>
       <c r="N8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="O8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="P8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="R8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="S8">
-        <v>0.03345307663822026</v>
+        <v>4.4831164326650748e-05</v>
       </c>
       <c r="T8">
-        <v>1.7150722759276463e-05</v>
+        <v>4.2895976917888449e-11</v>
       </c>
       <c r="U8">
-        <v>0.0013103855119644371</v>
+        <v>0.00017615381140328074</v>
       </c>
       <c r="V8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="W8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="X8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="Z8">
-        <v>0.063308820259966245</v>
+        <v>0.18545624547601572</v>
       </c>
       <c r="AA8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AC8">
-        <v>1.4526332684574635e-12</v>
+        <v>1.1178577357884976e-07</v>
       </c>
       <c r="AD8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AE8">
-        <v>2.2203012039009112e-14</v>
+        <v>8.6237196459553547e-13</v>
       </c>
       <c r="AF8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AG8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AH8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AI8">
-        <v>2.2203012039009112e-14</v>
+        <v>2.2202565925745165e-14</v>
       </c>
       <c r="AJ8">
-        <v>4.5484453986394864e-05</v>
+        <v>0.0089606092859399848</v>
       </c>
       <c r="AK8">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.01326353673466025</v>
+        <v>3.7398276676912883e-05</v>
       </c>
       <c r="C9">
-        <v>1.9080408905965178e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="D9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="E9">
-        <v>1.9080408905965168e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="F9">
-        <v>1.9080408905965168e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="G9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="H9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="I9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="J9">
-        <v>0.1265006490732033</v>
+        <v>2.2947194480343468e-06</v>
       </c>
       <c r="K9">
-        <v>0.21583548801592506</v>
+        <v>0.99119942043033249</v>
       </c>
       <c r="L9">
-        <v>1.9080408905965197e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="M9">
-        <v>4.5088331282171473e-08</v>
+        <v>9.7548554054979394e-11</v>
       </c>
       <c r="N9">
-        <v>1.9080408905965178e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="O9">
-        <v>1.9080408905965239e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="P9">
-        <v>1.9080408905965239e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="Q9">
-        <v>1.9080408905965239e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="R9">
-        <v>1.9080408905965204e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="S9">
-        <v>0.0058776638757370844</v>
+        <v>2.5037667595311106e-08</v>
       </c>
       <c r="T9">
-        <v>1.9080408905972484e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="U9">
-        <v>0.070930776459730394</v>
+        <v>0.002654011912908638</v>
       </c>
       <c r="V9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="W9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="X9">
-        <v>0.058460115046713577</v>
+        <v>4.1442570978162606e-05</v>
       </c>
       <c r="Y9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="Z9">
-        <v>4.1684663691219965e-09</v>
+        <v>2.8626411284035383e-12</v>
       </c>
       <c r="AA9">
-        <v>0.08468004086763771</v>
+        <v>0.0016002153465093951</v>
       </c>
       <c r="AB9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="AC9">
-        <v>0.18968361364271877</v>
+        <v>0.0021872091298986238</v>
       </c>
       <c r="AD9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="AE9">
-        <v>0.23455006664772826</v>
+        <v>0.0022724133245946984</v>
       </c>
       <c r="AF9">
-        <v>0.00021761428430072143</v>
+        <v>5.5691085404517598e-06</v>
       </c>
       <c r="AG9">
-        <v>1.9080408905965162e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="AH9">
-        <v>1.9080408905965171e-11</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="AI9">
-        <v>2.8454245199355004e-07</v>
+        <v>2.2203094042016888e-14</v>
       </c>
       <c r="AJ9">
-        <v>1.0115170676849638e-07</v>
+        <v>4.1545226404721313e-11</v>
       </c>
       <c r="AK9">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.7038714638058308e-06</v>
+        <v>2.5655126722445994e-05</v>
       </c>
       <c r="C10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="D10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="E10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="F10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="G10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="H10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="I10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="J10">
-        <v>3.0643904193051245e-06</v>
+        <v>9.5490983256922042e-06</v>
       </c>
       <c r="K10">
-        <v>0.99404638011558899</v>
+        <v>0.98225712473599591</v>
       </c>
       <c r="L10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="M10">
-        <v>4.9248060124597142e-08</v>
+        <v>6.4117803057728538e-09</v>
       </c>
       <c r="N10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="O10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="P10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="Q10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="R10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="S10">
-        <v>3.4144229853211922e-07</v>
+        <v>2.1832472760529997e-08</v>
       </c>
       <c r="T10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="U10">
-        <v>0.003303851933299168</v>
+        <v>0.0070783903849273612</v>
       </c>
       <c r="V10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="W10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="X10">
-        <v>0.00018398875509494317</v>
+        <v>9.7787341128232179e-07</v>
       </c>
       <c r="Y10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="Z10">
-        <v>7.2722671320608749e-11</v>
+        <v>6.0790755079998324e-11</v>
       </c>
       <c r="AA10">
-        <v>0.0003288065488726104</v>
+        <v>8.5793268755976292e-05</v>
       </c>
       <c r="AB10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="AC10">
-        <v>0.0021142571049764755</v>
+        <v>0.010059212208405369</v>
       </c>
       <c r="AD10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="AE10">
-        <v>1.3040646852274869e-05</v>
+        <v>0.000447408580285504</v>
       </c>
       <c r="AF10">
-        <v>5.0727370807423547e-07</v>
+        <v>3.5852194567905761e-05</v>
       </c>
       <c r="AG10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="AH10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="AI10">
-        <v>2.2202308793812936e-14</v>
+        <v>2.2203623246531709e-14</v>
       </c>
       <c r="AJ10">
-        <v>8.5961544746634604e-09</v>
+        <v>8.2230703686464811e-09</v>
       </c>
       <c r="AK10">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.4866850638998057e-06</v>
+        <v>8.6246994146126221e-06</v>
       </c>
       <c r="C11">
-        <v>4.4236706821028156e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="D11">
-        <v>4.423670682102815e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="E11">
-        <v>4.4236706821028074e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="F11">
-        <v>4.4236706821027954e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="G11">
-        <v>4.42367068210282e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="H11">
-        <v>4.42367068210282e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="I11">
-        <v>4.4236706821028131e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="J11">
-        <v>0.99051017469850722</v>
+        <v>0.97713051929524553</v>
       </c>
       <c r="K11">
-        <v>4.4236706821027872e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="L11">
-        <v>4.4236706821028074e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="M11">
-        <v>5.3786731711200012e-09</v>
+        <v>4.0556904866141888e-13</v>
       </c>
       <c r="N11">
-        <v>4.4236706821028074e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="O11">
-        <v>4.4236706821028093e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="P11">
-        <v>4.4236706821028093e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="Q11">
-        <v>4.4236706821028093e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="R11">
-        <v>4.4236706821028081e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="S11">
-        <v>1.2342832436117606e-05</v>
+        <v>2.9192866606790563e-09</v>
       </c>
       <c r="T11">
-        <v>5.0685033350042515e-11</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="U11">
-        <v>0.0001779635337148482</v>
+        <v>2.691130094070664e-05</v>
       </c>
       <c r="V11">
-        <v>4.4236706821027973e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="W11">
-        <v>4.4236706821027929e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="X11">
-        <v>8.6418812042655528e-08</v>
+        <v>3.5938366778822838e-09</v>
       </c>
       <c r="Y11">
-        <v>4.4236706821027973e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="Z11">
-        <v>2.7515265176461626e-09</v>
+        <v>4.3857690900694934e-11</v>
       </c>
       <c r="AA11">
-        <v>5.9969121576293083e-06</v>
+        <v>8.0896595175629595e-06</v>
       </c>
       <c r="AB11">
-        <v>4.4236706821028049e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="AC11">
-        <v>0.0031757027383791108</v>
+        <v>0.00083880492497879371</v>
       </c>
       <c r="AD11">
-        <v>4.4236706821027973e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="AE11">
-        <v>0.0058589638191009754</v>
+        <v>0.021986969738701276</v>
       </c>
       <c r="AF11">
-        <v>1.0084308065346913e-07</v>
+        <v>1.6139628783410879e-09</v>
       </c>
       <c r="AG11">
-        <v>4.4236706821028024e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="AH11">
-        <v>4.4236706821028049e-14</v>
+        <v>2.2201897647741034e-14</v>
       </c>
       <c r="AI11">
-        <v>1.269928486465119e-05</v>
+        <v>2.5690271842047699e-08</v>
       </c>
       <c r="AJ11">
-        <v>0.00024447405206965924</v>
+        <v>4.6519091840553397e-08</v>
       </c>
       <c r="AK11">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.1508689271151603e-12</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="C12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="D12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="E12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="F12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="G12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="H12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="I12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="J12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="K12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="L12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="M12">
-        <v>1.9162800000958008e-06</v>
+        <v>2.4235765346873518e-06</v>
       </c>
       <c r="N12">
-        <v>0.98523157019985563</v>
+        <v>0.92665525121555981</v>
       </c>
       <c r="O12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="P12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="R12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="S12">
-        <v>0.0069632008996670484</v>
+        <v>0.010583817919158939</v>
       </c>
       <c r="T12">
-        <v>7.3027744318983478e-06</v>
+        <v>2.5503963957592772e-07</v>
       </c>
       <c r="U12">
-        <v>0.00019072821053401059</v>
+        <v>3.6956778799363347e-06</v>
       </c>
       <c r="V12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="W12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="X12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="Y12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="Z12">
-        <v>0.0075281331706958318</v>
+        <v>0.06268720694069628</v>
       </c>
       <c r="AA12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="AB12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="AC12">
-        <v>7.4658518696755499e-05</v>
+        <v>2.6652215485945902e-05</v>
       </c>
       <c r="AD12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="AE12">
-        <v>4.5198047771856767e-12</v>
+        <v>4.4937281617529132e-12</v>
       </c>
       <c r="AF12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="AG12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="AH12">
-        <v>2.2203427093992639e-14</v>
+        <v>2.2203147039618505e-14</v>
       </c>
       <c r="AI12">
-        <v>5.578097885849458e-10</v>
+        <v>4.3133498636263261e-13</v>
       </c>
       <c r="AJ12">
-        <v>2.489382105444448e-06</v>
+        <v>4.0697409564527983e-05</v>
       </c>
       <c r="AK12">
         <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.9378683629603879e-10</v>
+        <v>2.9686749458197688e-05</v>
       </c>
       <c r="C13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="D13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="E13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="F13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="G13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="H13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="I13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="J13">
-        <v>8.4368281928692299e-07</v>
+        <v>4.8120077268465559e-05</v>
       </c>
       <c r="K13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="L13">
-        <v>0.91097900837063039</v>
+        <v>0.9723310666033137</v>
       </c>
       <c r="M13">
-        <v>2.075625496129228e-07</v>
+        <v>1.1986591292129419e-10</v>
       </c>
       <c r="N13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="O13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="P13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="Q13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="R13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="S13">
-        <v>1.5896585910037609e-09</v>
+        <v>1.2852775973728106e-08</v>
       </c>
       <c r="T13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="U13">
-        <v>0.00011501273307199731</v>
+        <v>0.0011088704213411953</v>
       </c>
       <c r="V13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="W13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="X13">
-        <v>6.5215718292403885e-06</v>
+        <v>7.5258925200907352e-06</v>
       </c>
       <c r="Y13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="Z13">
-        <v>5.7383058445509177e-10</v>
+        <v>9.5020013572672996e-13</v>
       </c>
       <c r="AA13">
-        <v>0.088888922949391186</v>
+        <v>0.0063148285799140835</v>
       </c>
       <c r="AB13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="AC13">
-        <v>2.7274980794505932e-06</v>
+        <v>0.0012026759061683984</v>
       </c>
       <c r="AD13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="AE13">
-        <v>1.5666230419052288e-09</v>
+        <v>0.018870192639795495</v>
       </c>
       <c r="AF13">
-        <v>5.6520852476753538e-06</v>
+        <v>8.7019921200790984e-05</v>
       </c>
       <c r="AG13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="AH13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="AI13">
-        <v>2.2200925842270597e-14</v>
+        <v>2.2203696911473098e-14</v>
       </c>
       <c r="AJ13">
-        <v>1.0991219938591077e-06</v>
+        <v>2.3493927541342068e-10</v>
       </c>
       <c r="AK13">
         <v>11</v>
